--- a/COVSCA/Adjacency_matrix_youngwomen.xlsx
+++ b/COVSCA/Adjacency_matrix_youngwomen.xlsx
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.153700451885336</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.153700451885336</v>
       </c>
       <c r="G15" t="n">
         <v>0.17677224048308</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.159326946328354</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.159326946328354</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
